--- a/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.11_Student_Right_A_Sheet.xlsx
+++ b/assets/public/Chapter_4_ComprehensiveProblem/documents/resources/Assessment_Questions/5.11_Student_Right_A_Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_4_ComprehensiveProblem\documents\resources\Assessment_Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0C267A-750F-4001-B03B-533B8DE176EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F77468-050D-4B01-ABF7-9FAF03C0FBDA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{8573AEC3-BED0-42B7-B402-28B1E164A1DE}"/>
   </bookViews>
@@ -213,8 +213,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -222,13 +222,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -556,44 +556,44 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
@@ -603,13 +603,13 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5">
         <v>7770</v>
       </c>
@@ -757,13 +757,13 @@
     </row>
     <row r="15" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="3">
         <v>15685</v>
       </c>
@@ -773,12 +773,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
@@ -788,6 +782,12 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
